--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Pimchanok.so\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59E33F3-D880-48E8-B212-4E4B3BBEFE03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563F77CD-4ADF-46A3-8A2E-00C47C0BAE76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FD078BE3-E8B9-44A6-B418-7A750EFEECD0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{FD078BE3-E8B9-44A6-B418-7A750EFEECD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Login-1" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="66">
   <si>
     <t>Test case id</t>
   </si>
@@ -272,6 +272,18 @@
   </si>
   <si>
     <t>CreateOrder - negative test case 1</t>
+  </si>
+  <si>
+    <t>CreateOrder-2</t>
+  </si>
+  <si>
+    <t>CreateOrder-2-1</t>
+  </si>
+  <si>
+    <t>CreateOrder-2-3</t>
+  </si>
+  <si>
+    <t>CreateOrder-2-2</t>
   </si>
 </sst>
 </file>
@@ -2755,7 +2767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979BEA8C-301B-4367-92C1-0DC76D982842}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -3881,8 +3893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E12B5B-A430-4226-A911-B135B5A26391}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3904,13 +3916,13 @@
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="23" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
@@ -4164,13 +4176,13 @@
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="23" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
@@ -4426,13 +4438,13 @@
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="23" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
